--- a/src/testcase.xlsx
+++ b/src/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="17505" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="15705" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>火狐测试01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exute001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -435,6 +439,14 @@
         <v>5</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
     </row>

--- a/src/testcase.xlsx
+++ b/src/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="15705" windowHeight="5325"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="15705" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>exute001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hujun3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -447,6 +451,14 @@
         <v>6</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
